--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/modulat/12400_VM_baaf0cae-58af-40b9-9672-26f8cca14727.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/modulat/12400_VM_baaf0cae-58af-40b9-9672-26f8cca14727.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/vertx-zero/vertx-env/exec-toolkit/configuration/modulat/zero-erp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8C1AB1-0D57-8449-8F12-CFC6261C57A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FDEF22-C451-BA4D-9465-DDD51348A084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-58080" yWindow="2220" windowWidth="38400" windowHeight="22580" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -224,14 +224,14 @@
     <t>Vendor Management</t>
   </si>
   <si>
-    <t>BLOCK_APP_SUPPLIER</t>
-  </si>
-  <si>
     <t>Z-COMMERCE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>zero.vm</t>
+  </si>
+  <si>
+    <t>BLOCK_APP_VENDOR</t>
   </si>
 </sst>
 </file>
@@ -721,7 +721,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -854,17 +854,17 @@
         <v>12400</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8" t="b">
         <v>1</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">

--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/modulat/12400_VM_baaf0cae-58af-40b9-9672-26f8cca14727.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/modulat/12400_VM_baaf0cae-58af-40b9-9672-26f8cca14727.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/vertx-zero/vertx-env/exec-toolkit/configuration/modulat/zero-erp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FDEF22-C451-BA4D-9465-DDD51348A084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8636AA-D57D-CE42-A092-37EC91CE7647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-58080" yWindow="2220" windowWidth="38400" windowHeight="22580" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -721,7 +721,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>

--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/modulat/12400_VM_baaf0cae-58af-40b9-9672-26f8cca14727.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/modulat/12400_VM_baaf0cae-58af-40b9-9672-26f8cca14727.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/web-app/vertx-zero/vertx-env/exec-toolkit/configuration/modulat/zero-erp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8636AA-D57D-CE42-A092-37EC91CE7647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3CCA7B-1C04-CC46-B2D3-F810B60F8742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-58080" yWindow="2220" windowWidth="38400" windowHeight="22580" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="-63320" yWindow="1460" windowWidth="38400" windowHeight="22580" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-LDATA" sheetId="6" r:id="rId1"/>
@@ -215,23 +215,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>供应商管理</t>
-  </si>
-  <si>
-    <t>VM</t>
-  </si>
-  <si>
-    <t>Vendor Management</t>
-  </si>
-  <si>
     <t>Z-COMMERCE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zero.vm</t>
-  </si>
-  <si>
     <t>BLOCK_APP_VENDOR</t>
+  </si>
+  <si>
+    <t>zero.cm</t>
+  </si>
+  <si>
+    <t>Customer Management</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>客户管理</t>
   </si>
 </sst>
 </file>
@@ -842,29 +842,29 @@
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F5" s="5">
         <v>12400</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H5" s="8"/>
       <c r="I5" s="8" t="b">
         <v>1</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
